--- a/src/main/resources/template_group.xlsx
+++ b/src/main/resources/template_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User93\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav.klochkov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F83B186-4A97-43E5-8CBB-E29CF92B7EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4C8ECE-1D0B-744E-A6F3-56E44596AC7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="21570" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="21580" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -173,9 +172,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,49 +462,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
